--- a/biology/Botanique/Actinomonadaceae/Actinomonadaceae.xlsx
+++ b/biology/Botanique/Actinomonadaceae/Actinomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Actinomonadaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Dictyochophyceae et de l’ordre des Pedinellales.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Actinomonadaceae a été créée en 1881 par le biologiste britannique William Saville-Kent (1845-1908) sous le taxon Actinomonadidae[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Actinomonadaceae a été créée en 1881 par le biologiste britannique William Saville-Kent (1845-1908) sous le taxon Actinomonadidae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Actinomonas, dérivé du grec ακτινο / aktino, «  lancer des rayons », et μονασ / monas, « seul, solitaire, isolé », littéralement « monade rayonnante », en référence aux pseudopodes rayonnés que l'organisme émet[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Actinomonas, dérivé du grec ακτινο / aktino, «  lancer des rayons », et μονασ / monas, « seul, solitaire, isolé », littéralement « monade rayonnante », en référence aux pseudopodes rayonnés que l'organisme émet.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (22 février 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (22 février 2022) :
 Actinomonas Kent, 1881 - genre type
 Apedinella (en) Throndsen, 1971
 Cyrtophora Pascher, 1911 - ancien genre type des Cyrtophoraceae Pascher, 1911
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) W. Saville Kent, A manual of the infusoria, including a description of all known flagellate, ciliate, and tentaculiferous protozoa, British and foreign and an account of the organization and affinities of the sponges, vol. 1, Londres, David Bogue, 1881, 472 p. (lire en ligne), p. 211.</t>
         </is>
